--- a/数据整理/stocks/A股/科创板/688065-凯赛生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688065-凯赛生物.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -773,7 +774,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -784,17 +785,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -804,13 +825,635 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>001417</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6169</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1937</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010846</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1618</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010599</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6540</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013049</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5311</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>710001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富安达优势成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3130</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002851</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2772</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013050</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2149</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010847</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>73.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1526</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010746</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富安达长三角区域主题混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长城新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004703</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方兴盛先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>73.63</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011259</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>75.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009789</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富安达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004549</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富安达消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>7</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.85</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688065-凯赛生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688065-凯赛生物.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1400,7 +1401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1411,17 +1412,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1431,14 +1452,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.34</v>
+          <t>162006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9370</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1447,13 +1490,309 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>010846</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>60.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7595</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013049</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2825</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013050</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1233</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010847</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>60.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004703</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方兴盛先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>53.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>7</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.85</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688065-凯赛生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688065-凯赛生物.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1723,7 +1724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1734,17 +1735,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1754,14 +1775,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.28</v>
+          <t>162006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8302</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1770,14 +1813,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.34</v>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5236</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1786,13 +1851,325 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>630010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商价值精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1534</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1440</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>630006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商产业升级混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>090011</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成核心双动力混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015383</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>7</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.85</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688065-凯赛生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688065-凯赛生物.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,319 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>162006</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>长城久富核心成长混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12.61</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>86.59</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5296</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010746</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富安达长三角区域主题混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.83</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.44</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0934</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
+      <c r="D3" t="n">
+        <v>2.28</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004703</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>南方兴盛先锋灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>87.41</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.04</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0726</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.34</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000598</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>长盛生态环境主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>84.39</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0447</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000976</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>长城新兴产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>86.90</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0424</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009789</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富安达科技创新混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>88.84</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0391</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>080002</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>长盛创新先锋混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>76.66</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0249</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
+      <c r="D5" t="n">
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -776,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -827,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001417</t>
+          <t>162006</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇添富医疗服务灵活配置混合</t>
+          <t>长城久富核心成长混合(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>47.98</t>
+          <t>20.15</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.31</t>
+          <t>92.24</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.6169</t>
+          <t>0.8302</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -865,32 +643,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162006</t>
+          <t>002666</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>长城久富核心成长混合(LOF)</t>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>25.95</t>
+          <t>10.07</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>83.36</t>
+          <t>85.43</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.1937</t>
+          <t>0.5236</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -903,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010846</t>
+          <t>630010</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>南方卓越优选3个月持有期混合A</t>
+          <t>华商价值精选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>34.27</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>73.62</t>
+          <t>90.71</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.1618</t>
+          <t>0.1534</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -941,36 +719,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010599</t>
+          <t>002667</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富高质量成长30一年持有期混合A</t>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>26.16</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>75.45</t>
+          <t>85.43</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.6540</t>
+          <t>0.1440</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -979,36 +757,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>013049</t>
+          <t>000976</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>兴业能源革新股票A</t>
+          <t>长城新兴产业灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12.41</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.05</t>
+          <t>92.24</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.5311</t>
+          <t>0.0464</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1017,36 +795,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>710001</t>
+          <t>630006</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富安达优势成长混合</t>
+          <t>华商产业升级混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8.46</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.83</t>
+          <t>90.15</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3130</t>
+          <t>0.0308</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1055,32 +833,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002851</t>
+          <t>090011</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>南方品质优选灵活配置混合</t>
+          <t>大成核心双动力混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8.80</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>73.98</t>
+          <t>92.62</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2772</t>
+          <t>0.0062</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1093,302 +871,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>013050</t>
+          <t>015383</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>兴业能源革新股票C</t>
+          <t>长城久富核心成长混合（LOF）C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>90.05</t>
+          <t>92.24</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.2149</t>
+          <t>0.0004</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010847</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>南方卓越优选3个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>73.62</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1526</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>010746</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>富安达长三角区域主题混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.97</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0651</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>000976</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>长城新兴产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>86.43</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0551</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
         <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>004703</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>南方兴盛先锋灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>73.63</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0378</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>011259</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>汇添富高质量成长30一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>75.45</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0298</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>009789</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>富安达科技创新混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>86.11</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0296</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>004549</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>富安达消费主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>91.36</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0110</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1724,7 +1236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1775,36 +1287,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>162006</t>
+          <t>001417</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>长城久富核心成长混合(LOF)</t>
+          <t>汇添富医疗服务灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20.15</t>
+          <t>47.98</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.24</t>
+          <t>87.31</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8302</t>
+          <t>1.6169</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1813,32 +1325,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002666</t>
+          <t>162006</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源沪港深创新成长灵活配置混合A</t>
+          <t>长城久富核心成长混合(LOF)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.07</t>
+          <t>25.95</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.43</t>
+          <t>83.36</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5236</t>
+          <t>1.1937</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1851,36 +1363,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>630010</t>
+          <t>010846</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华商价值精选混合</t>
+          <t>南方卓越优选3个月持有期混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>34.27</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.71</t>
+          <t>73.62</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1534</t>
+          <t>1.1618</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1889,36 +1401,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002667</t>
+          <t>010599</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源沪港深创新成长灵活配置混合C</t>
+          <t>汇添富高质量成长30一年持有期混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>26.16</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>85.43</t>
+          <t>75.45</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1440</t>
+          <t>0.6540</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1927,36 +1439,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000976</t>
+          <t>013049</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>长城新兴产业灵活配置混合</t>
+          <t>兴业能源革新股票A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>12.41</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.24</t>
+          <t>90.05</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0464</t>
+          <t>0.5311</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1965,36 +1477,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>630006</t>
+          <t>710001</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华商产业升级混合</t>
+          <t>富安达优势成长混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>8.46</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90.15</t>
+          <t>91.83</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0308</t>
+          <t>0.3130</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -2003,32 +1515,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>090011</t>
+          <t>002851</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>大成核心双动力混合</t>
+          <t>南方品质优选灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>8.80</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.62</t>
+          <t>73.98</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0062</t>
+          <t>0.2772</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -2041,36 +1553,302 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>015383</t>
+          <t>013050</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>长城久富核心成长混合（LOF）C</t>
+          <t>兴业能源革新股票C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>92.24</t>
+          <t>90.05</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0004</t>
+          <t>0.2149</t>
         </is>
       </c>
       <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010847</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>73.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1526</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010746</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富安达长三角区域主题混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长城新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004703</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方兴盛先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>73.63</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011259</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>75.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009789</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富安达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004549</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富安达消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2084,96 +1862,318 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>162006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5296</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010746</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富安达长三角区域主题混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0934</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004703</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方兴盛先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
-      <c r="D2" t="n">
-        <v>1.74</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000598</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长盛生态环境主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>7</v>
       </c>
-      <c r="D3" t="n">
-        <v>2.28</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.34</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.85</v>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009789</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富安达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>080002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长盛创新先锋混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688065-凯赛生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688065-凯赛生物.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>1.74</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>2.28</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>6.34</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.85</v>
       </c>
     </row>
@@ -549,6 +566,290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001766</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4720</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2880</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>630010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商价值精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1329</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1065</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>630006</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商产业升级混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014932</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -908,7 +1209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1230,7 +1531,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1856,7 +2157,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688065-凯赛生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688065-凯赛生物.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>1.03</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>1.74</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>2.28</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>6.34</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.34</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.85</v>
       </c>
     </row>
@@ -566,6 +583,366 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001766</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3517</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>630010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商价值精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1355</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>67.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1140</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>67.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014932</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>588160</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方上证科创板新材料ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>630006</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商产业升级混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>588010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时上证科创板新材料ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -849,7 +1226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1209,7 +1586,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1531,7 +1908,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2157,7 +2534,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
